--- a/docs/IMR-SampleSubmissionSheet_v17(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v17(LASTNAME_MMMDD).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFFD852-5E11-4EFF-ACD9-7E0392293562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5FECC-367B-4F2A-940D-57FA75BB7F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="183">
   <si>
     <t xml:space="preserve">Plate 1 </t>
   </si>
@@ -1279,77 +1279,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for control reactions (ie: max. 95 samples/plate).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Organize samples </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>down columns</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (not across rows), starting with Plate1-A1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoid empty wells in between samples</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, but always leave the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H6 and H12 (last) positions empty</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for control reactions (ie: max. 47 samples/half-plate).</t>
     </r>
   </si>
   <si>
@@ -2624,6 +2553,11 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2684,6 +2618,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2693,24 +2628,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3129,7 +3058,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3214,21 +3143,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
@@ -3263,32 +3192,32 @@
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="142"/>
+      <c r="C9" s="145"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="146"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
@@ -3318,18 +3247,18 @@
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
     </row>
     <row r="18" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="73" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3337,7 +3266,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3352,15 +3281,15 @@
       <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
+      <c r="A22" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="77"/>
     </row>
@@ -3369,15 +3298,15 @@
       <c r="C24" s="127"/>
     </row>
     <row r="25" spans="1:3" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
+      <c r="A25" s="143" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
     </row>
     <row r="26" spans="1:3" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="127"/>
     </row>
@@ -3385,18 +3314,18 @@
       <c r="A27" s="14"/>
     </row>
     <row r="28" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
     </row>
     <row r="29" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="103" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3404,7 +3333,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3412,29 +3341,29 @@
         <v>71</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="137" t="s">
+      <c r="A33" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="78"/>
       <c r="B34" s="126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="78"/>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3473,20 +3402,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
+      <c r="A1" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -3505,35 +3434,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="J3" s="149" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="J3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -3541,35 +3470,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="J4" s="149" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="J4" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -3578,26 +3507,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -3605,30 +3534,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -3636,30 +3565,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="153"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="156"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -3671,31 +3600,31 @@
       <c r="B8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -3705,31 +3634,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -3749,21 +3678,21 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -3771,7 +3700,7 @@
       <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="147" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="59"/>
@@ -3787,21 +3716,21 @@
       <c r="J11" s="61"/>
       <c r="K11" s="62"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -3809,7 +3738,7 @@
       <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="58"/>
       <c r="D12" s="98" t="s">
         <v>145</v>
@@ -3818,27 +3747,27 @@
       <c r="F12" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -3846,31 +3775,31 @@
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="58"/>
       <c r="C13" s="99"/>
       <c r="D13" s="11"/>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="149"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -3878,7 +3807,7 @@
       <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="57"/>
       <c r="D14" s="9" t="s">
         <v>125</v>
@@ -3887,25 +3816,25 @@
       <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="147"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -3913,7 +3842,7 @@
       <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="57"/>
       <c r="C15" s="4"/>
       <c r="D15" s="9"/>
@@ -3923,9 +3852,9 @@
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -3949,7 +3878,7 @@
       <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="57"/>
       <c r="C16" s="30"/>
       <c r="D16" s="28"/>
@@ -3959,9 +3888,9 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="146"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -3985,7 +3914,7 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="57"/>
       <c r="D17" s="31"/>
       <c r="E17" s="38"/>
@@ -3993,9 +3922,9 @@
         <v>91</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="149"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -4018,10 +3947,10 @@
       <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="146"/>
+      <c r="A18" s="147"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
@@ -4029,7 +3958,7 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="57"/>
       <c r="D19" s="31" t="s">
         <v>126</v>
@@ -4065,7 +3994,7 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="57"/>
       <c r="D20" s="31"/>
       <c r="E20" s="11"/>
@@ -4096,7 +4025,7 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="144"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="57"/>
       <c r="D21" s="31" t="s">
         <v>127</v>
@@ -4142,7 +4071,7 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="144"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="57"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -4182,7 +4111,7 @@
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="57"/>
       <c r="C23" s="32"/>
       <c r="D23" s="31" t="s">
@@ -4228,7 +4157,7 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="65"/>
       <c r="C24" s="66"/>
       <c r="D24" s="67"/>
@@ -4408,7 +4337,7 @@
       <c r="A30" s="98"/>
       <c r="B30" s="8"/>
       <c r="C30" s="110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="111"/>
       <c r="E30" s="111"/>
@@ -6123,20 +6052,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
+      <c r="A1" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -6155,35 +6084,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="J3" s="149" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="J3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -6191,35 +6120,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="J4" s="149" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="J4" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -6228,26 +6157,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5" s="93"/>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -6255,30 +6184,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -6286,30 +6215,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="153"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="156"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -6321,26 +6250,26 @@
       <c r="B8" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -6350,26 +6279,26 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="90"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -6385,21 +6314,21 @@
       <c r="F10" s="80"/>
       <c r="G10" s="12"/>
       <c r="H10" s="81"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -6419,21 +6348,21 @@
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -6443,33 +6372,33 @@
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="80"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
       <c r="L12" s="81"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -6479,31 +6408,31 @@
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="80"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
       <c r="L13" s="81"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -6513,31 +6442,31 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="80"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
       <c r="L14" s="81"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="147"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -6612,37 +6541,37 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="59"/>
       <c r="F17" s="83"/>
       <c r="G17" s="84"/>
       <c r="H17" s="114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
       <c r="M17" s="114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
       <c r="Q17" s="61"/>
       <c r="R17" s="114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S17" s="61"/>
       <c r="T17" s="61"/>
       <c r="U17" s="61"/>
       <c r="V17" s="114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W17" s="62"/>
       <c r="X17" s="79"/>
@@ -6655,10 +6584,10 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="85"/>
       <c r="F18" s="81"/>
       <c r="G18" s="80" t="s">
@@ -6696,10 +6625,10 @@
       <c r="AE18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="162"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="65"/>
       <c r="F19" s="68"/>
       <c r="G19" s="69"/>
@@ -6750,12 +6679,12 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="149"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="118"/>
@@ -6786,7 +6715,7 @@
       <c r="A22" s="90"/>
       <c r="B22" s="90"/>
       <c r="C22" s="120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="121"/>
       <c r="E22" s="121"/>
@@ -6879,7 +6808,7 @@
       <c r="A25" s="90"/>
       <c r="B25" s="90"/>
       <c r="C25" s="123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="124"/>
       <c r="E25" s="124"/>
@@ -7873,6 +7802,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="A27:AA27"/>
     <mergeCell ref="A43:AA43"/>
     <mergeCell ref="C12:K14"/>
@@ -7885,13 +7821,6 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A17:D19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7916,20 +7845,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
+      <c r="A1" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -7948,35 +7877,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="J3" s="149" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="J3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -7984,35 +7913,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="J4" s="149" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="J4" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -8021,26 +7950,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -8048,30 +7977,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -8079,30 +8008,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="153"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="156"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -8114,31 +8043,31 @@
       <c r="B8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -8148,31 +8077,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -8187,21 +8116,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -8217,21 +8146,21 @@
       <c r="F11" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -8246,21 +8175,21 @@
       <c r="F12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -8279,21 +8208,21 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -8375,9 +8304,9 @@
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="170" t="s">
-        <v>181</v>
+      <c r="E16" s="137"/>
+      <c r="F16" s="136" t="s">
+        <v>180</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -8411,9 +8340,9 @@
       <c r="B17" s="128"/>
       <c r="C17" s="128"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="170" t="s">
-        <v>182</v>
+      <c r="E17" s="138"/>
+      <c r="F17" s="136" t="s">
+        <v>181</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -8464,12 +8393,12 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="149"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="118"/>
@@ -8500,7 +8429,7 @@
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
@@ -8562,7 +8491,7 @@
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="124"/>
       <c r="E22" s="124"/>
@@ -10192,13 +10121,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:AA24"/>
-    <mergeCell ref="A51:AA51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C8:G9"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -10209,6 +10131,13 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A24:AA24"/>
+    <mergeCell ref="A51:AA51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10232,20 +10161,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
+      <c r="A1" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -10261,32 +10190,32 @@
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="J3" s="149" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="J3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -10294,32 +10223,32 @@
       <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="J4" s="149" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="J4" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -10328,21 +10257,21 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -10350,27 +10279,27 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -10378,27 +10307,27 @@
       <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="153"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="156"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -10410,28 +10339,28 @@
       <c r="B8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -10441,28 +10370,28 @@
     <row r="9" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -10477,18 +10406,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -10504,18 +10433,18 @@
       <c r="F11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -10528,20 +10457,20 @@
       <c r="D12" s="13"/>
       <c r="E12" s="76"/>
       <c r="F12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
+        <v>182</v>
+      </c>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -10559,18 +10488,18 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -10596,10 +10525,10 @@
       <c r="AC14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="149"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="117" t="s">
         <v>109</v>
       </c>
@@ -10657,7 +10586,7 @@
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="124"/>
       <c r="E17" s="124"/>
@@ -10714,262 +10643,207 @@
         <v>103</v>
       </c>
       <c r="Q19" s="168"/>
-      <c r="R19" s="165" t="s">
+      <c r="R19" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="S19" s="165"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="170"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="170"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
       <c r="I20" s="169"/>
       <c r="J20" s="169"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
       <c r="N20" s="169"/>
       <c r="O20" s="169"/>
       <c r="P20" s="169"/>
       <c r="Q20" s="169"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="171"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="167"/>
-      <c r="T21" s="167"/>
-      <c r="U21" s="167"/>
-      <c r="V21" s="167"/>
-      <c r="W21" s="167"/>
-      <c r="X21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="167"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="167"/>
-      <c r="S22" s="167"/>
-      <c r="T22" s="167"/>
-      <c r="U22" s="167"/>
-      <c r="V22" s="167"/>
-      <c r="W22" s="167"/>
-      <c r="X22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="167"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="167"/>
-      <c r="S23" s="167"/>
-      <c r="T23" s="167"/>
-      <c r="U23" s="167"/>
-      <c r="V23" s="167"/>
-      <c r="W23" s="167"/>
-      <c r="X23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="172"/>
+      <c r="T23" s="172"/>
+      <c r="U23" s="172"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="172"/>
+      <c r="X23" s="172"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="167"/>
-      <c r="U24" s="167"/>
-      <c r="V24" s="167"/>
-      <c r="W24" s="167"/>
-      <c r="X24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="172"/>
+      <c r="U24" s="172"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="172"/>
+      <c r="X24" s="172"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>6</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="164"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="167"/>
-      <c r="S25" s="167"/>
-      <c r="T25" s="167"/>
-      <c r="U25" s="167"/>
-      <c r="V25" s="167"/>
-      <c r="W25" s="167"/>
-      <c r="X25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="172"/>
+      <c r="X25" s="172"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="167"/>
-      <c r="S26" s="167"/>
-      <c r="T26" s="167"/>
-      <c r="U26" s="167"/>
-      <c r="V26" s="167"/>
-      <c r="W26" s="167"/>
-      <c r="X26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:X13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C8:G9"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P26:Q26"/>
@@ -10986,6 +10860,61 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:X13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11011,20 +10940,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
+      <c r="A1" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -11043,35 +10972,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="J3" s="149" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="J3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -11079,35 +11008,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="J4" s="149" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="J4" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -11116,26 +11045,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -11143,30 +11072,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -11174,30 +11103,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="153"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="156"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -11209,31 +11138,31 @@
       <c r="B8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -11243,31 +11172,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -11282,21 +11211,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -11308,27 +11237,27 @@
       <c r="C11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="156"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -11338,21 +11267,21 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -11369,23 +11298,23 @@
       <c r="H13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="J13" s="153"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="156"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -11423,8 +11352,8 @@
       <c r="H15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="151"/>
-      <c r="J15" s="153"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="156"/>
       <c r="K15" s="72"/>
       <c r="L15" s="72"/>
     </row>
@@ -11441,8 +11370,8 @@
       <c r="H17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="151"/>
-      <c r="J17" s="153"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
@@ -11452,6 +11381,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:AA13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -11464,12 +11399,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/IMR-SampleSubmissionSheet_v17(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v17(LASTNAME_MMMDD).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5FECC-367B-4F2A-940D-57FA75BB7F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB7D95-08E2-4CE2-9A28-09B142D398AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,33 +624,6 @@
   </si>
   <si>
     <t xml:space="preserve"> NextSeq - ~4 million PE 150+150 bp reads = 1.2 Gb/genome</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Submissions can contain a maximum of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6 genomes per MiSeq or PacBio run</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. If sequencing depth(s) different from standard are required, indicate so in the Notes box above.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> NextSeq 1X - ~4 million PE 150+150 bp reads = 1.2 Gb/sample</t>
@@ -1554,6 +1527,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Sequel 2 - long-reads of variable size = ~2.0 Gb/genome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Submissions can contain a maximum of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24/48 genomes per MiSeq/PacBio run</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If sequencing depth(s) different from standard are required, indicate so in the Notes box above.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2631,15 +2631,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3030,7 +3030,7 @@
     <row r="6" spans="1:2" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3048,7 +3048,7 @@
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3058,7 +3058,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3078,7 +3078,7 @@
     </row>
     <row r="15" spans="1:2" s="100" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3131,7 +3131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -3165,7 +3165,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3201,14 +3201,14 @@
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="145"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="146"/>
     </row>
@@ -3224,7 +3224,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3232,7 +3232,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3258,7 +3258,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3282,14 +3282,14 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="143"/>
       <c r="C22" s="143"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="77"/>
     </row>
@@ -3299,14 +3299,14 @@
     </row>
     <row r="25" spans="1:3" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="143"/>
       <c r="C25" s="143"/>
     </row>
     <row r="26" spans="1:3" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="127"/>
     </row>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="28" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="140"/>
       <c r="C28" s="140"/>
@@ -3325,7 +3325,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3333,7 +3333,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3341,12 +3341,12 @@
         <v>71</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="140"/>
       <c r="C33" s="140"/>
@@ -3354,16 +3354,16 @@
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="78"/>
       <c r="B34" s="126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="78"/>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3403,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="152"/>
       <c r="C6" s="154"/>
@@ -3701,13 +3701,13 @@
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
@@ -3741,14 +3741,14 @@
       <c r="A12" s="147"/>
       <c r="B12" s="58"/>
       <c r="D12" s="98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" s="148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="148"/>
       <c r="K12" s="149"/>
@@ -3810,7 +3810,7 @@
       <c r="A14" s="147"/>
       <c r="B14" s="57"/>
       <c r="D14" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="11" t="s">
@@ -3884,7 +3884,7 @@
       <c r="D16" s="28"/>
       <c r="E16" s="116"/>
       <c r="F16" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="30"/>
@@ -3961,7 +3961,7 @@
       <c r="A19" s="147"/>
       <c r="B19" s="57"/>
       <c r="D19" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="11" t="s">
@@ -4028,7 +4028,7 @@
       <c r="A21" s="147"/>
       <c r="B21" s="57"/>
       <c r="D21" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
@@ -4036,11 +4036,11 @@
       </c>
       <c r="G21" s="12"/>
       <c r="J21" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="49"/>
@@ -4050,11 +4050,11 @@
       <c r="P21" s="33"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T21" s="54"/>
       <c r="U21" s="101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V21" s="33"/>
       <c r="W21" s="135"/>
@@ -4078,11 +4078,11 @@
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
       <c r="J22" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K22" s="47"/>
       <c r="L22" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M22" s="33"/>
       <c r="N22" s="53"/>
@@ -4092,14 +4092,14 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="51"/>
       <c r="R22" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S22" s="33"/>
       <c r="U22" s="102"/>
       <c r="V22" s="33"/>
       <c r="W22" s="56"/>
       <c r="X22" s="101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y22" s="79"/>
       <c r="Z22" s="64"/>
@@ -4115,17 +4115,17 @@
       <c r="B23" s="57"/>
       <c r="C23" s="32"/>
       <c r="D23" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="101" t="s">
@@ -4137,7 +4137,7 @@
       <c r="P23" s="33"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S23" s="33"/>
       <c r="T23" s="55"/>
@@ -4213,7 +4213,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
@@ -4244,7 +4244,7 @@
       <c r="A27" s="87"/>
       <c r="B27" s="13"/>
       <c r="C27" s="107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="108"/>
       <c r="E27" s="108"/>
@@ -4275,7 +4275,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="87"/>
       <c r="C28" s="107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="108"/>
       <c r="E28" s="108"/>
@@ -4306,7 +4306,7 @@
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="108"/>
       <c r="E29" s="108"/>
@@ -4337,7 +4337,7 @@
       <c r="A30" s="98"/>
       <c r="B30" s="8"/>
       <c r="C30" s="110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="111"/>
       <c r="E30" s="111"/>
@@ -6053,7 +6053,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="152"/>
       <c r="C6" s="154"/>
@@ -6373,7 +6373,7 @@
       <c r="A12" s="90"/>
       <c r="B12" s="80"/>
       <c r="C12" s="164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="164"/>
       <c r="E12" s="164"/>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
@@ -6551,27 +6551,27 @@
       <c r="F17" s="83"/>
       <c r="G17" s="84"/>
       <c r="H17" s="114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
       <c r="M17" s="114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
       <c r="Q17" s="61"/>
       <c r="R17" s="114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S17" s="61"/>
       <c r="T17" s="61"/>
       <c r="U17" s="61"/>
       <c r="V17" s="114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W17" s="62"/>
       <c r="X17" s="79"/>
@@ -6591,27 +6591,27 @@
       <c r="E18" s="85"/>
       <c r="F18" s="81"/>
       <c r="G18" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="134"/>
       <c r="I18" s="80"/>
       <c r="J18" s="12"/>
       <c r="K18" s="81"/>
       <c r="L18" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M18" s="133"/>
       <c r="N18" s="79"/>
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
       <c r="Q18" s="80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R18" s="132"/>
       <c r="S18" s="79"/>
       <c r="T18" s="79"/>
       <c r="U18" s="80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V18" s="82"/>
       <c r="W18" s="64"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="B21" s="152"/>
       <c r="C21" s="117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="118"/>
@@ -6715,7 +6715,7 @@
       <c r="A22" s="90"/>
       <c r="B22" s="90"/>
       <c r="C22" s="120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="121"/>
       <c r="E22" s="121"/>
@@ -6746,7 +6746,7 @@
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
       <c r="C23" s="120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="121"/>
       <c r="E23" s="121"/>
@@ -6777,7 +6777,7 @@
       <c r="A24" s="90"/>
       <c r="B24" s="90"/>
       <c r="C24" s="120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="121"/>
       <c r="E24" s="121"/>
@@ -6808,7 +6808,7 @@
       <c r="A25" s="90"/>
       <c r="B25" s="90"/>
       <c r="C25" s="123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="124"/>
       <c r="E25" s="124"/>
@@ -7802,13 +7802,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
     <mergeCell ref="A27:AA27"/>
     <mergeCell ref="A43:AA43"/>
     <mergeCell ref="C12:K14"/>
@@ -7821,6 +7814,13 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A17:D19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7846,7 +7846,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="152"/>
       <c r="C6" s="154"/>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M11" s="150"/>
       <c r="N11" s="150"/>
@@ -8173,7 +8173,7 @@
       <c r="D12" s="13"/>
       <c r="E12" s="43"/>
       <c r="F12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="150"/>
       <c r="N12" s="150"/>
@@ -8203,7 +8203,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="40"/>
       <c r="F13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -8236,7 +8236,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="35"/>
       <c r="F14" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -8306,7 +8306,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="137"/>
       <c r="F16" s="136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -8342,7 +8342,7 @@
       <c r="D17" s="11"/>
       <c r="E17" s="138"/>
       <c r="F17" s="136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B19" s="152"/>
       <c r="C19" s="117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="118"/>
@@ -8429,7 +8429,7 @@
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
@@ -8491,7 +8491,7 @@
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" s="124"/>
       <c r="E22" s="124"/>
@@ -10121,6 +10121,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:AA24"/>
+    <mergeCell ref="A51:AA51"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C8:G9"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -10131,13 +10138,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A24:AA24"/>
-    <mergeCell ref="A51:AA51"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10162,7 +10162,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="152"/>
       <c r="C6" s="154"/>
@@ -10457,7 +10457,7 @@
       <c r="D12" s="13"/>
       <c r="E12" s="76"/>
       <c r="F12" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M12" s="150"/>
       <c r="N12" s="150"/>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="B15" s="152"/>
       <c r="C15" s="117" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="118"/>
@@ -10586,7 +10586,7 @@
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="124"/>
       <c r="E17" s="124"/>
@@ -10614,44 +10614,44 @@
       <c r="B19" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="168" t="s">
+      <c r="C19" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168" t="s">
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168" t="s">
+      <c r="H19" s="171"/>
+      <c r="I19" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="168"/>
+      <c r="J19" s="171"/>
       <c r="K19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="168" t="s">
+      <c r="L19" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="168"/>
-      <c r="N19" s="168" t="s">
+      <c r="M19" s="171"/>
+      <c r="N19" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="O19" s="168"/>
-      <c r="P19" s="168" t="s">
+      <c r="O19" s="171"/>
+      <c r="P19" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="Q19" s="168"/>
-      <c r="R19" s="170" t="s">
+      <c r="Q19" s="171"/>
+      <c r="R19" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="170"/>
-      <c r="V19" s="170"/>
-      <c r="W19" s="170"/>
-      <c r="X19" s="170"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
@@ -10663,22 +10663,22 @@
       <c r="F20" s="167"/>
       <c r="G20" s="167"/>
       <c r="H20" s="167"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
       <c r="K20" s="36"/>
       <c r="L20" s="167"/>
       <c r="M20" s="167"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="171"/>
-      <c r="W20" s="171"/>
-      <c r="X20" s="171"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="169"/>
+      <c r="S20" s="169"/>
+      <c r="T20" s="169"/>
+      <c r="U20" s="169"/>
+      <c r="V20" s="169"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="169"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
@@ -10699,13 +10699,13 @@
       <c r="O21" s="167"/>
       <c r="P21" s="167"/>
       <c r="Q21" s="167"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="172"/>
+      <c r="R21" s="170"/>
+      <c r="S21" s="170"/>
+      <c r="T21" s="170"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="170"/>
+      <c r="W21" s="170"/>
+      <c r="X21" s="170"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
@@ -10726,13 +10726,13 @@
       <c r="O22" s="167"/>
       <c r="P22" s="167"/>
       <c r="Q22" s="167"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="172"/>
-      <c r="X22" s="172"/>
+      <c r="R22" s="170"/>
+      <c r="S22" s="170"/>
+      <c r="T22" s="170"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="170"/>
+      <c r="W22" s="170"/>
+      <c r="X22" s="170"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
@@ -10753,13 +10753,13 @@
       <c r="O23" s="167"/>
       <c r="P23" s="167"/>
       <c r="Q23" s="167"/>
-      <c r="R23" s="172"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="172"/>
-      <c r="X23" s="172"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
@@ -10780,13 +10780,13 @@
       <c r="O24" s="167"/>
       <c r="P24" s="167"/>
       <c r="Q24" s="167"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="172"/>
-      <c r="X24" s="172"/>
+      <c r="R24" s="170"/>
+      <c r="S24" s="170"/>
+      <c r="T24" s="170"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="170"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="170"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -10807,13 +10807,13 @@
       <c r="O25" s="167"/>
       <c r="P25" s="167"/>
       <c r="Q25" s="167"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="172"/>
-      <c r="X25" s="172"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170"/>
+      <c r="T25" s="170"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="170"/>
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
@@ -10834,16 +10834,71 @@
       <c r="O26" s="167"/>
       <c r="P26" s="167"/>
       <c r="Q26" s="167"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="172"/>
-      <c r="X26" s="172"/>
+      <c r="R26" s="170"/>
+      <c r="S26" s="170"/>
+      <c r="T26" s="170"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:X13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C8:G9"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P26:Q26"/>
@@ -10860,61 +10915,6 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:X13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10941,7 +10941,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="152"/>
       <c r="C6" s="154"/>
@@ -11359,12 +11359,12 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="23"/>
       <c r="H17" s="13" t="s">
@@ -11381,12 +11381,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:AA13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -11399,6 +11393,12 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
